--- a/data/trans_orig/Q64D_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.970456022463389</v>
+        <v>4.920697022562675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.780386496561724</v>
+        <v>6.816144351540252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.735399786236004</v>
+        <v>7.371662709348159</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.23251799677141</v>
+        <v>15.36294442746186</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.065707350457794</v>
+        <v>5.180680389913362</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.921482378312207</v>
+        <v>5.896379348053276</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.334197433231684</v>
+        <v>5.299329749772286</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>15.09207537063376</v>
+        <v>15.49640400646765</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.453956400842724</v>
+        <v>5.598724498997196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.034118920041293</v>
+        <v>6.909452327850495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.980111261570459</v>
+        <v>6.86435222022941</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.62206174765897</v>
+        <v>16.81461209498301</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.899390515210369</v>
+        <v>9.880815607902948</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.803072032895</v>
+        <v>14.3566639613509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.6273416127738</v>
+        <v>13.47398187145624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.89653939725552</v>
+        <v>26.96491459439309</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.938578841103462</v>
+        <v>10.13816220416628</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.95282332043616</v>
+        <v>11.10282219424488</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.080403731887277</v>
+        <v>9.486746423739262</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.04734722211296</v>
+        <v>26.35184566652771</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.027852386915862</v>
+        <v>8.902724548234101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11.41951341184896</v>
+        <v>11.51351947221238</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10.50676242010844</v>
+        <v>10.3873286822594</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>24.77182327502309</v>
+        <v>24.48330001311556</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.160657021343979</v>
+        <v>7.053948784639409</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.572402101158278</v>
+        <v>6.539850196056933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.562089132999631</v>
+        <v>6.649531315008617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14.67852738208695</v>
+        <v>14.31468615025441</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.139403060526556</v>
+        <v>5.956707939995081</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.973552005557167</v>
+        <v>6.955003166550673</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.89765138311471</v>
+        <v>10.73677322811223</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.536698075957887</v>
+        <v>9.801293286209535</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.205589035918563</v>
+        <v>7.294620944050649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.261035824411258</v>
+        <v>7.386815602267949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8.979906627432372</v>
+        <v>8.882368262610846</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>13.12502502827485</v>
+        <v>13.06592408708566</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.72441699160885</v>
+        <v>10.60252574444236</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.42212927455243</v>
+        <v>11.32539021905685</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.99013026779209</v>
+        <v>10.85777275523032</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.93273226933827</v>
+        <v>20.66751384873458</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>10.64184183546073</v>
+        <v>10.71505207984116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>13.71987083645437</v>
+        <v>13.83074699896945</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>19.00273343071374</v>
+        <v>18.56711655893929</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>14.58288671179758</v>
+        <v>14.80400967550748</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>9.972661248714331</v>
+        <v>10.17737093135793</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11.19717656408584</v>
+        <v>11.2442536129667</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13.14305942839919</v>
+        <v>13.14633017641064</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.21657416405133</v>
+        <v>17.23983748501059</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>8.026768866691583</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>15.519955304386</v>
+        <v>15.51995530438601</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>9.769649252457851</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.72885221183647</v>
+        <v>8.726883045903298</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.608802615029241</v>
+        <v>6.592681580743764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.800726066907626</v>
+        <v>6.967048417264403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.59451017686751</v>
+        <v>12.70061040364551</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.818937747744247</v>
+        <v>6.0251119259325</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.281201027829192</v>
+        <v>5.409888578959906</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.182224128907712</v>
+        <v>6.282859739483236</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>12.86095077999358</v>
+        <v>12.77101398841586</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.204369627718622</v>
+        <v>8.005574044288419</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.443235544677381</v>
+        <v>6.641062371344237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.178259908235286</v>
+        <v>7.203064024029651</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>13.51310825211059</v>
+        <v>13.39310015232595</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.99359506563891</v>
+        <v>14.41475644774753</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.26076541033182</v>
+        <v>11.15352779194229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.26519517574754</v>
+        <v>12.43702784463187</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.2147271459861</v>
+        <v>18.58822263727249</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.742057117308415</v>
+        <v>9.869626732209944</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.748456957010056</v>
+        <v>8.945418819912756</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.0934811108227</v>
+        <v>10.37921550879683</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.85367649561028</v>
+        <v>18.96852080903444</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.1413576252736</v>
+        <v>11.92558305289601</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9.694556899126693</v>
+        <v>9.623722360972833</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10.78804790978329</v>
+        <v>11.00463325665548</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.8102234351844</v>
+        <v>17.60879342626221</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.21223183701056</v>
+        <v>9.755477181113999</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.225765167472411</v>
+        <v>7.334535710089823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10.03605934820017</v>
+        <v>10.23933468290917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18.45331961317644</v>
+        <v>18.30987139169718</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>9.764591094993829</v>
+        <v>9.871603439461534</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.020374964486984</v>
+        <v>6.032745248017451</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>9.080288961905563</v>
+        <v>8.847917266769645</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.07095488352886</v>
+        <v>17.66087716617675</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>10.73141941006469</v>
+        <v>10.53896347661094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.380557633484406</v>
+        <v>7.309493087668303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10.8051963011299</v>
+        <v>10.56977847661557</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>19.02702674245281</v>
+        <v>19.07961632064024</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.02681764710143</v>
+        <v>17.42470237051976</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.56915776517846</v>
+        <v>13.47259514960809</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.96906374016146</v>
+        <v>19.63967908686775</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26.58295511533827</v>
+        <v>26.22071912711707</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.81781600707199</v>
+        <v>18.3325498597217</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.19444884844646</v>
+        <v>12.10198794091523</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>19.4367347053566</v>
+        <v>19.83558121546023</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>25.21303474899293</v>
+        <v>25.19384288752266</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>16.5265831851975</v>
+        <v>16.19519043916041</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11.95818440365241</v>
+        <v>11.81129354963179</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.42757746066645</v>
+        <v>17.25359605356915</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>24.86208324552397</v>
+        <v>24.47423327261371</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>9.987201692206348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18.48136933646513</v>
+        <v>18.48136933646514</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>8.600266255949954</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.787155949359848</v>
+        <v>8.667567997740173</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.855153751141915</v>
+        <v>7.807819909114477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.594354583347336</v>
+        <v>8.652918794839167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.58127487366903</v>
+        <v>16.60279385404964</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.418502187106472</v>
+        <v>7.37862600117553</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.154076070451982</v>
+        <v>7.21855698928812</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.980026864733443</v>
+        <v>8.894911488758323</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15.25497470251198</v>
+        <v>15.40837455287602</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.573944457421582</v>
+        <v>8.574268521176405</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7.788017114686057</v>
+        <v>7.779873009715481</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9.151156290901973</v>
+        <v>9.142465401239331</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.45118129326182</v>
+        <v>16.61492689724169</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.74146107630003</v>
+        <v>11.32942561387454</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.39990024889231</v>
+        <v>10.47472652173898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.56276035770176</v>
+        <v>11.68482384012881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.33246292084688</v>
+        <v>20.28881525167012</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.07537046064443</v>
+        <v>10.00110763628419</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.761617720518155</v>
+        <v>9.744751826349674</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.01270523099493</v>
+        <v>12.08507204335396</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.89282924744975</v>
+        <v>18.73095982612498</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.56694149638065</v>
+        <v>10.62720504873296</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9.715183127435894</v>
+        <v>9.754947872610323</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11.28913156841549</v>
+        <v>11.31541298109136</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>19.1317650658705</v>
+        <v>19.17640666626057</v>
       </c>
     </row>
     <row r="19">
